--- a/08 Project Management/Tidsregistrering/PM01 tidsregistrering for mik.xlsx
+++ b/08 Project Management/Tidsregistrering/PM01 tidsregistrering for mik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ef811b0cfc9726/Skrivebord/1aarsprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0923D7DC-4667-4F19-B804-68450AA89C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{0923D7DC-4667-4F19-B804-68450AA89C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10FAA788-03A6-40EB-91A1-E7823C979C29}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -169,6 +169,60 @@
   </si>
   <si>
     <t>Kravindsamling og UCDO1</t>
+  </si>
+  <si>
+    <t>Visionsdokument</t>
+  </si>
+  <si>
+    <t>Milepæl</t>
+  </si>
+  <si>
+    <t>Risikoanalyse med Rasmus</t>
+  </si>
+  <si>
+    <t>Review af metrikker</t>
+  </si>
+  <si>
+    <t>Faseplan</t>
+  </si>
+  <si>
+    <t>Lav UC02 med Toke</t>
+  </si>
+  <si>
+    <t>Lav AD02 med Emil</t>
+  </si>
+  <si>
+    <t>Lav SSD02 med Rasmus</t>
+  </si>
+  <si>
+    <t>Lav DOM01 med Rasmus</t>
+  </si>
+  <si>
+    <t>Vejledning med Andracs</t>
+  </si>
+  <si>
+    <t>Vejledning med Anders</t>
+  </si>
+  <si>
+    <t>Ret UCD01 fælles</t>
+  </si>
+  <si>
+    <t>Diverse opgaver</t>
+  </si>
+  <si>
+    <t>Diverse rettelser jf vejledning</t>
+  </si>
+  <si>
+    <t>Iterationsplan2</t>
+  </si>
+  <si>
+    <t>Lav OC02 sendbesked</t>
+  </si>
+  <si>
+    <t>Review af OC0101, OC0102</t>
+  </si>
+  <si>
+    <t>Rapport skrivning</t>
   </si>
 </sst>
 </file>
@@ -750,13 +804,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="53.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" style="17" customWidth="1"/>
     <col min="5" max="5" width="31" style="17" customWidth="1"/>
@@ -873,261 +928,454 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43963</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.31249999999999994</v>
+        <v>0.35416666666666657</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43963</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.4375</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.31249999999999994</v>
+        <v>0.39583333333333326</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43963</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.31249999999999994</v>
+        <v>0.47916666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43963</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.5625</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.31249999999999994</v>
+        <v>0.52083333333333326</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43963</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.31249999999999994</v>
+        <v>0.62499999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.31249999999999994</v>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.4375</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.31249999999999994</v>
+        <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.31249999999999994</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.31249999999999994</v>
+        <v>0.79166666666666674</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.625</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.31249999999999994</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="15"/>
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="15"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43964</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="15"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43965</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43965</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="15"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43965</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13194444444444442</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="15"/>
+        <v>1.2152777777777777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="15"/>
+        <v>1.2777777777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="15"/>
+        <v>1.3194444444444442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="15"/>
+        <v>1.3611111111111109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="12">
+        <v>43966</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="15"/>
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="C25" s="12"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C26" s="15"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1135,10 +1383,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C27" s="15"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1146,10 +1394,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C28" s="15"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1157,10 +1405,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C29" s="15"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1168,10 +1416,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C30" s="15"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1179,10 +1427,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C31" s="15"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1190,10 +1438,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.31249999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.4861111111111109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C32" s="15"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1201,7 +1449,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.31249999999999994</v>
+        <v>1.4861111111111109</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
@@ -1257,7 +1505,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
       <formula1>Roller</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C6:C1048576" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C26:C1048576" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
       <formula1>43881</formula1>
       <formula2>43908</formula2>
     </dataValidation>
@@ -1265,7 +1513,7 @@
       <formula1>0.333333333333333</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5" xr:uid="{32D7BBDC-FF9C-47EE-8288-B7B202549342}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C25" xr:uid="{32D7BBDC-FF9C-47EE-8288-B7B202549342}">
       <formula1>43881</formula1>
       <formula2>44196</formula2>
     </dataValidation>
